--- a/gallery/The linguistic environment of the Flushing area in Queens/The linguistic environment of the Flushing area in Queens.xlsx
+++ b/gallery/The linguistic environment of the Flushing area in Queens/The linguistic environment of the Flushing area in Queens.xlsx
@@ -2054,7 +2054,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Language</a:t>
+                  <a:t>Year</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800">
                   <a:solidFill>
@@ -2128,6 +2128,8 @@
         <c:crossAx val="614846704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="614846704"/>
@@ -2322,6 +2324,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3458,16 +3461,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3487,6 +3490,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08296</cdr:x>
+      <cdr:y>0.88767</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91183</cdr:x>
+      <cdr:y>0.93056</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1365250" y="8279765"/>
+          <a:ext cx="13639800" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>         2000                                                                                          2010                                                             2017           </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3755,7 +3802,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/gallery/The linguistic environment of the Flushing area in Queens/The linguistic environment of the Flushing area in Queens.xlsx
+++ b/gallery/The linguistic environment of the Flushing area in Queens/The linguistic environment of the Flushing area in Queens.xlsx
@@ -740,9 +740,30 @@
               <a:t>The linguistic environment of the Flushing area in Queens</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="4000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23997793457861816"/>
+          <c:y val="1.203842475600625E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -802,28 +823,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$B$1:$H$1</c:f>
+              <c:f>'The linguistic environment of t'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>English</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Italian</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Spanish</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Greek</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Hindi</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Chinese</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Korean</c:v>
                 </c:pt>
               </c:strCache>
@@ -831,29 +855,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$B$2:$H$2</c:f>
+              <c:f>'The linguistic environment of t'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>83350</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7584</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35706</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6466</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10753</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>38407</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>25094</c:v>
                 </c:pt>
               </c:numCache>
@@ -891,28 +918,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$B$1:$H$1</c:f>
+              <c:f>'The linguistic environment of t'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>English</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Italian</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Spanish</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Greek</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Hindi</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Chinese</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Korean</c:v>
                 </c:pt>
               </c:strCache>
@@ -920,29 +950,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$B$3:$H$3</c:f>
+              <c:f>'The linguistic environment of t'!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>66989</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6710</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>34795</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6732</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9254</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61280</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>26102</c:v>
                 </c:pt>
               </c:numCache>
@@ -980,28 +1013,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$B$1:$H$1</c:f>
+              <c:f>'The linguistic environment of t'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>English</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Italian</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Spanish</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Greek</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Hindi</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Chinese</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Korean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1009,29 +1045,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$B$4:$H$4</c:f>
+              <c:f>'The linguistic environment of t'!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>63371</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5175</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>36602</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5526</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7969</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>81968</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>20955</c:v>
                 </c:pt>
               </c:numCache>
@@ -1123,7 +1162,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1191,7 +1230,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1201,23 +1240,40 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Speakers</a:t>
+                  <a:t>Number of people </a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="3200">
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
+                  <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4902869518586688E-3"/>
+              <c:y val="0.31871236629646771"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1231,7 +1287,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1245,7 +1301,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1260,13 +1316,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="100" spc="-100" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -1290,8 +1346,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.92533448773660609"/>
-          <c:y val="8.0209158172761932E-2"/>
+          <c:x val="0.92533447405224545"/>
+          <c:y val="0.11512061221930446"/>
           <c:w val="6.8110920889694893E-2"/>
           <c:h val="0.14506807150411047"/>
         </c:manualLayout>
@@ -1356,6 +1412,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1438,7 +1495,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$B$1</c:f>
+              <c:f>'The linguistic environment of t'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,7 +1548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$B$2:$B$4</c:f>
+              <c:f>'The linguistic environment of t'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1519,7 +1576,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$C$1</c:f>
+              <c:f>'The linguistic environment of t'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1572,7 +1629,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$C$2:$C$4</c:f>
+              <c:f>'The linguistic environment of t'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1600,7 +1657,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$D$1</c:f>
+              <c:f>'The linguistic environment of t'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1653,7 +1710,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$D$2:$D$4</c:f>
+              <c:f>'The linguistic environment of t'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1681,7 +1738,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$E$1</c:f>
+              <c:f>'The linguistic environment of t'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1734,7 +1791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$E$2:$E$4</c:f>
+              <c:f>'The linguistic environment of t'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1762,7 +1819,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$F$1</c:f>
+              <c:f>'The linguistic environment of t'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1815,7 +1872,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$F$2:$F$4</c:f>
+              <c:f>'The linguistic environment of t'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1843,7 +1900,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$G$1</c:f>
+              <c:f>'The linguistic environment of t'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1896,7 +1953,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$G$2:$G$4</c:f>
+              <c:f>'The linguistic environment of t'!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1924,7 +1981,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The linguistic environment of t'!$H$1</c:f>
+              <c:f>'The linguistic environment of t'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1977,7 +2034,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'The linguistic environment of t'!$H$2:$H$4</c:f>
+              <c:f>'The linguistic environment of t'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3431,16 +3488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33654</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>121708</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>565461</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>125503</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3461,15 +3518,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3493,6 +3550,57 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22112</cdr:x>
+      <cdr:y>0.14116</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22112</cdr:x>
+      <cdr:y>0.8748</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="直接连接符 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3838015" y="1489226"/>
+          <a:ext cx="0" cy="7739528"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3799,112 +3907,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S86" sqref="S86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>83350</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7584</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>35706</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6466</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10753</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>38407</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>25094</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2010</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>66989</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6710</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>34795</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6732</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9254</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>61280</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>26102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>63371</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5175</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>36602</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5526</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7969</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>81968</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20955</v>
       </c>
     </row>
